--- a/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Coast_Surface_Water_mass_flows.xlsx
+++ b/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Coast_Surface_Water_mass_flows.xlsx
@@ -487,25 +487,25 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>1.398200965783019E-06</v>
+        <v>1.924228400277192E-15</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.005711374058995228</v>
+        <v>7.860091959506291E-12</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00100858879975066</v>
+        <v>1.388037385308804E-12</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0002901446121828582</v>
+        <v>3.993020435635347E-13</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.056552906243587E-22</v>
+        <v>2.830263750140064E-31</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -528,25 +528,25 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>5.931619283892005E-10</v>
+        <v>4.071450000026934E-17</v>
       </c>
       <c r="D3">
-        <v>5.861313510487905E-10</v>
+        <v>4.023192276894676E-17</v>
       </c>
       <c r="E3">
-        <v>6.475069567060939E-05</v>
+        <v>4.444473039693597E-12</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4.27875886265617E-07</v>
+        <v>2.936930362133114E-14</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.230886988965424E-07</v>
+        <v>8.448780326926443E-15</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>8.724560471310439E-26</v>
+        <v>5.988518485603905E-33</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -569,25 +569,25 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>1.093084692174384E-14</v>
+        <v>1.884277583969626E-17</v>
       </c>
       <c r="D4">
-        <v>1.080128674432618E-13</v>
+        <v>1.861943784966587E-16</v>
       </c>
       <c r="E4">
-        <v>1.254372610391493E-06</v>
+        <v>2.162308381617226E-09</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.884939323358113E-12</v>
+        <v>1.359218963025609E-14</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.268290766888034E-12</v>
+        <v>3.910117373860849E-15</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.607770667790013E-30</v>
+        <v>2.771501834367737E-33</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -610,25 +610,25 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>1.77174697014876E-15</v>
+        <v>9.400925192258398E-18</v>
       </c>
       <c r="D5">
-        <v>1.750746964071002E-13</v>
+        <v>9.289498736054326E-16</v>
       </c>
       <c r="E5">
-        <v>0.0008723838932929026</v>
+        <v>4.62888654980407E-06</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.278045283771831E-12</v>
+        <v>6.781334077319657E-15</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.676601934344116E-13</v>
+        <v>1.950812408815889E-15</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.605985455422115E-31</v>
+        <v>1.382741143701788E-33</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -651,25 +651,25 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>3.878864837149812E-14</v>
+        <v>7.71409413765097E-15</v>
       </c>
       <c r="D6">
-        <v>3.832889770434665E-11</v>
+        <v>7.622661203657316E-12</v>
       </c>
       <c r="E6">
-        <v>166.3719289116131</v>
+        <v>33.08722462290815</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.798009532417305E-11</v>
+        <v>5.564542678669839E-12</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.04914144265588E-12</v>
+        <v>1.600773355679499E-12</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5.705253356980182E-30</v>
+        <v>1.134632510351495E-30</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -692,7 +692,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>3.824675924631726E-06</v>
+        <v>5.738913367099217E-09</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.664258629879174E-10</v>
+        <v>2.49721447922244E-13</v>
       </c>
       <c r="G7">
-        <v>0.02758920494736801</v>
+        <v>4.139750927402712E-05</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.007936692507260059</v>
+        <v>1.190898042553938E-05</v>
       </c>
       <c r="J7">
-        <v>0.02448945251275902</v>
+        <v>3.674634116665635E-05</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5.625549245588127E-21</v>
+        <v>8.441117731011226E-24</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -733,25 +733,25 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>2.021321131645228E-06</v>
+        <v>2.825916744246076E-09</v>
       </c>
       <c r="D8">
-        <v>1.998028560837504E-07</v>
+        <v>2.793352464957851E-10</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.206135156420509E-09</v>
+        <v>3.08429679034933E-12</v>
       </c>
       <c r="G8">
-        <v>0.01458074986334319</v>
+        <v>2.038468036444449E-05</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.004194500291378238</v>
+        <v>5.864139260990636E-06</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.97307322013513E-21</v>
+        <v>4.156517865031691E-24</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -774,25 +774,25 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>1.057319722574089E-06</v>
+        <v>1.883633402603065E-09</v>
       </c>
       <c r="D9">
-        <v>1.04478796496909E-06</v>
+        <v>1.861307859331599E-09</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.213321719739781E-06</v>
+        <v>2.161553663107328E-09</v>
       </c>
       <c r="G9">
-        <v>0.007626949601958668</v>
+        <v>1.358754284394123E-05</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.002194073873262891</v>
+        <v>3.908780615001784E-06</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.55516553163778E-21</v>
+        <v>2.770554336050993E-24</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -815,25 +815,25 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>1.771746992731088E-07</v>
+        <v>9.400924593938789E-10</v>
       </c>
       <c r="D10">
-        <v>1.750746986969251E-06</v>
+        <v>9.28949814792293E-09</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0008723838889977052</v>
+        <v>4.628886173410456E-06</v>
       </c>
       <c r="G10">
-        <v>0.001278045300061538</v>
+        <v>6.781333645723291E-06</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0003676601981205341</v>
+        <v>1.950812284656906E-06</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.605985488637478E-22</v>
+        <v>1.382741055697562E-24</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -856,25 +856,25 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.878461133019338E-06</v>
+        <v>7.714094137810025E-07</v>
       </c>
       <c r="D11">
-        <v>0.0003832490851294148</v>
+        <v>7.622661203817028E-05</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>166.3546132662185</v>
+        <v>33.0872246229157</v>
       </c>
       <c r="G11">
-        <v>0.02797718321443795</v>
+        <v>0.005564542678784574</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.008048303704868255</v>
+        <v>0.001600773355712505</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.704659566156756E-21</v>
+        <v>1.13463251037489E-21</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -897,13 +897,13 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>6.595738048421262E-11</v>
+        <v>1.385229483765106E-16</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0009631531837252171</v>
+        <v>2.022803479585955E-09</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.843500701800726E-08</v>
+        <v>1.437264317458851E-13</v>
       </c>
       <c r="J12">
-        <v>4.575669996740476E-05</v>
+        <v>9.609770644213841E-11</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.850691919206972E-26</v>
+        <v>1.018736859138146E-31</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -938,13 +938,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>8.663327561857837E-15</v>
+        <v>1.04698002184134E-17</v>
       </c>
       <c r="D13">
-        <v>6.420482728299133E-14</v>
+        <v>7.759278520994797E-17</v>
       </c>
       <c r="E13">
-        <v>4.181034066950908E-07</v>
+        <v>5.05286116388852E-10</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.988757257225302E-12</v>
+        <v>1.086308834832752E-14</v>
       </c>
       <c r="J13">
-        <v>1.175450102765739E-08</v>
+        <v>1.420554360296129E-11</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>6.371255603124716E-30</v>
+        <v>7.699786580718623E-33</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -979,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>1.273670237804778E-18</v>
+        <v>4.064166127650053E-19</v>
       </c>
       <c r="D14">
-        <v>3.77572137494963E-17</v>
+        <v>1.204798421447185E-17</v>
       </c>
       <c r="E14">
-        <v>4.648488551548556E-09</v>
+        <v>1.483290506068056E-09</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.321514454074782E-15</v>
+        <v>4.216832679318602E-16</v>
       </c>
       <c r="J14">
-        <v>1.002428510391515E-11</v>
+        <v>3.198658393985607E-12</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>9.36693041005904E-34</v>
+        <v>2.988902477475663E-34</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1020,13 +1020,13 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>3.367981273458762E-13</v>
+        <v>4.472169877905693E-13</v>
       </c>
       <c r="D15">
-        <v>8.48655698398351E-11</v>
+        <v>1.12688644708303E-10</v>
       </c>
       <c r="E15">
-        <v>1.005037600102174</v>
+        <v>1.334537966929881</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.494496300392589E-10</v>
+        <v>4.640162704057854E-10</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.476908486551738E-28</v>
+        <v>3.28895995092928E-28</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1061,13 +1061,13 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>7.287723648657508E-13</v>
+        <v>9.697095739591395E-13</v>
       </c>
       <c r="D16">
-        <v>1.803936762469518E-09</v>
+        <v>2.400330794247101E-09</v>
       </c>
       <c r="E16">
-        <v>29872.2312920872</v>
+        <v>39748.1985815899</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>7.561480085773721E-10</v>
+        <v>1.006135795753847E-09</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>5.35959766025243E-28</v>
+        <v>7.131517898148053E-28</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1102,7 +1102,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>1.510937382725404E-08</v>
+        <v>6.312232861210354E-09</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>8.827322697372006E-10</v>
+        <v>3.68778461926414E-10</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.270777258374131E-05</v>
+        <v>2.619738364288883E-05</v>
       </c>
       <c r="J17">
-        <v>0.04193806028180519</v>
+        <v>0.0175204350142379</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.444743984075063E-23</v>
+        <v>1.856877681147727E-23</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.222606440094367E-09</v>
+        <v>7.086430908470602E-10</v>
       </c>
       <c r="D18">
-        <v>9.553347384568053E-10</v>
+        <v>2.100757180370353E-10</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>6.22159008205204E-10</v>
+        <v>1.368112088052449E-10</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.337464239635296E-05</v>
+        <v>2.941050389773365E-06</v>
       </c>
       <c r="J18">
-        <v>0.01749147933571768</v>
+        <v>0.003846332529388074</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>9.479982924119733E-24</v>
+        <v>2.084624519129565E-24</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1184,16 +1184,16 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>3.050428636055156E-10</v>
+        <v>8.383612653098849E-11</v>
       </c>
       <c r="D19">
-        <v>3.617128039520081E-10</v>
+        <v>9.94109484862929E-11</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.45324978159661E-09</v>
+        <v>1.223904102365238E-09</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1202,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.266006039559635E-06</v>
+        <v>3.479414049127687E-07</v>
       </c>
       <c r="J19">
-        <v>0.009603269867692887</v>
+        <v>0.002639304320130874</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>8.973485257542626E-25</v>
+        <v>2.466218145815036E-25</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1225,16 +1225,16 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>8.41995343608909E-05</v>
+        <v>0.0001118042502996722</v>
       </c>
       <c r="D20">
-        <v>0.0008486557241088265</v>
+        <v>0.001126886481222446</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.005037600097148</v>
+        <v>1.334537966922962</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3494496405162565</v>
+        <v>0.4640162843175683</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.476908560812982E-19</v>
+        <v>3.288960049536375E-19</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1266,16 +1266,16 @@
         <v>16</v>
       </c>
       <c r="C21">
-        <v>0.0001821930912203472</v>
+        <v>0.0002424273934949869</v>
       </c>
       <c r="D21">
-        <v>0.01803936762508824</v>
+        <v>0.02400330794299403</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29872.23129208899</v>
+        <v>39748.19858159229</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7561480085935974</v>
+        <v>1.006135795775437</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.359597660367436E-19</v>
+        <v>7.131517898301081E-19</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1346,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>1.246555215476848E-06</v>
+        <v>4.063066203009719E-12</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>1.478335587988697E-10</v>
+        <v>2.543972120027284E-13</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>2.285691600892735E-14</v>
+        <v>9.973943716433702E-15</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>6.041927769216771E-15</v>
+        <v>4.931050212011886E-15</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>4.941891463276961E-12</v>
+        <v>7.251135629953755E-12</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>5.636913428090938E-05</v>
+        <v>3.669315005443532E-05</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>4.081171280655933E-05</v>
+        <v>1.481514315796482E-05</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>2.279010044421448E-05</v>
+        <v>9.875548542039827E-06</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>6.041923964370676E-06</v>
+        <v>4.931044542685385E-06</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.004935940570380392</v>
+        <v>0.007242314063495054</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>2.45953948206245E-09</v>
+        <v>1.033725256335287E-12</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>1.490274095031666E-13</v>
+        <v>7.467893116300725E-14</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>7.958618909020412E-16</v>
+        <v>1.095678471155684E-15</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>3.482013526593699E-10</v>
+        <v>4.640480103084508E-10</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>7.347792419715507E-10</v>
+        <v>1.024816990789045E-09</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>1.94050559549614E-05</v>
+        <v>2.679183820413722E-05</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.248580852471198E-06</v>
+        <v>3.015912258236822E-06</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>2.638367978963435E-07</v>
+        <v>3.565520086231008E-07</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>0.3482013661806271</v>
+        <v>0.464048028311376</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>16</v>
       </c>
       <c r="C21">
-        <v>0.7347792419878423</v>
+        <v>1.024816990811768</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.074344051339383E-15</v>
+        <v>1.442425064066983E-17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>8.815864046479815E-16</v>
+        <v>2.616586762609753E-30</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>8.815864029479141E-07</v>
+        <v>2.616586757563879E-21</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>13</v>
       </c>
       <c r="C42">
-        <v>0.007010258337128483</v>
+        <v>7.37620448702451E-30</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>13</v>
       </c>
       <c r="C43">
-        <v>6.530047974197914E-05</v>
+        <v>1.257017738107122E-30</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>13</v>
       </c>
       <c r="C44">
-        <v>4.105727206358257E-08</v>
+        <v>8.223456996366696E-31</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>13</v>
       </c>
       <c r="C45">
-        <v>4.195262274217125E-12</v>
+        <v>3.982093810448267E-31</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>13</v>
       </c>
       <c r="C46">
-        <v>1.416412530359834E-11</v>
+        <v>2.510776958263575E-29</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2516,7 +2516,7 @@
         <v>14</v>
       </c>
       <c r="C47">
-        <v>0.0539813846118401</v>
+        <v>3.941084024364442E-21</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>14</v>
       </c>
       <c r="C48">
-        <v>0.01861355117021786</v>
+        <v>1.237179805631107E-21</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>0.009761619373663901</v>
+        <v>8.223421897381032E-22</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>14</v>
       </c>
       <c r="C50">
-        <v>0.001622429037352275</v>
+        <v>3.982093953218299E-22</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>14</v>
       </c>
       <c r="C51">
-        <v>0.01416102850050494</v>
+        <v>2.510776958397588E-20</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>15</v>
       </c>
       <c r="C52">
-        <v>3.849288953082994E-07</v>
+        <v>5.822107125566287E-30</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>15</v>
       </c>
       <c r="C53">
-        <v>1.081211399711886E-09</v>
+        <v>6.283383363577566E-31</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>15</v>
       </c>
       <c r="C54">
-        <v>1.189020103077925E-14</v>
+        <v>6.18224932155721E-32</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>15</v>
       </c>
       <c r="C55">
-        <v>2.343233128186567E-16</v>
+        <v>6.954744104992948E-31</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>1.1613145894543E-11</v>
+        <v>7.588511955703359E-27</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>16</v>
       </c>
       <c r="C57">
-        <v>0.0002922689512286426</v>
+        <v>5.225484583571057E-21</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>16</v>
       </c>
       <c r="C58">
-        <v>4.580576117046542E-05</v>
+        <v>5.867782217294848E-22</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>16</v>
       </c>
       <c r="C59">
-        <v>3.654999162192282E-06</v>
+        <v>6.149963049736656E-23</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>16</v>
       </c>
       <c r="C60">
-        <v>2.34321355087591E-07</v>
+        <v>6.95475965471356E-22</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>16</v>
       </c>
       <c r="C61">
-        <v>0.01161314589524794</v>
+        <v>7.588511956164443E-18</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>2.645696424459087E-18</v>
+        <v>1.947645331179711E-30</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>5.88549941591529E-19</v>
+        <v>1.217430609136238E-31</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <v>3.075372266206231E-19</v>
+        <v>4.817005613173906E-33</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <v>5.105126060812872E-20</v>
+        <v>2.381711900599703E-33</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="G126">
-        <v>0.01731564544998159</v>
+        <v>3.486758553161669E-30</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <v>1.24385481717592E-22</v>
+        <v>1.76941283647319E-23</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="G128">
-        <v>7.100766086232015E-23</v>
+        <v>7.157101744232104E-24</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="G129">
-        <v>3.783262979206377E-23</v>
+        <v>4.770812870097565E-24</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="G130">
-        <v>7.402713916013553E-24</v>
+        <v>2.382144122874737E-24</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>2.459336048174427E-21</v>
+        <v>3.483176506395809E-21</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="G132">
-        <v>2.016278257219056E-27</v>
+        <v>4.961175708117419E-31</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>1.81608945795136E-31</v>
+        <v>3.584668136534769E-32</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>3.968231417904557E-34</v>
+        <v>5.291571705787472E-34</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>1.708082200732479E-28</v>
+        <v>2.276153373908479E-28</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="G136">
-        <v>3.606718094525166E-28</v>
+        <v>5.024438084204643E-28</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>1.005005008013756E-23</v>
+        <v>1.313450951479004E-23</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>1.239544005242853E-24</v>
+        <v>1.47843215843858E-24</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>1.417183608394013E-25</v>
+        <v>1.747885183373213E-25</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>1.70813425396571E-19</v>
+        <v>2.276222738841701E-19</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>3.606827868873874E-19</v>
+        <v>5.024591008387756E-19</v>
       </c>
       <c r="H141">
         <v>0</v>
